--- a/Archivos de trabajo/Yami/EXP mensual 2017-2025/participaciones_paises_80_panel.xlsx
+++ b/Archivos de trabajo/Yami/EXP mensual 2017-2025/participaciones_paises_80_panel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Yami/EXP mensual 2017-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FBEE302400496AE548A72FFA5F7C99FEFC474104" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075F7718-0D47-47C1-99C2-65D157927BD2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FBEE30240029E0DA00452DFA5F7C99FEFC474104" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{959297EC-CDE7-4C27-8A75-2B10DEAFE838}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL105"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2:BL105"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -937,12 +937,8 @@
       <c r="BK2">
         <v>0</v>
       </c>
-      <c r="BL2">
-        <f>SUM(B2:BK2)</f>
-        <v>0.81023381664980199</v>
-      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42767</v>
       </c>
@@ -1132,12 +1128,8 @@
       <c r="BK3">
         <v>0</v>
       </c>
-      <c r="BL3">
-        <f t="shared" ref="BL3:BL66" si="0">SUM(B3:BK3)</f>
-        <v>0.80572261706794868</v>
-      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42795</v>
       </c>
@@ -1327,12 +1319,8 @@
       <c r="BK4">
         <v>0</v>
       </c>
-      <c r="BL4">
-        <f t="shared" si="0"/>
-        <v>0.81255029718978644</v>
-      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42826</v>
       </c>
@@ -1522,12 +1510,8 @@
       <c r="BK5">
         <v>0</v>
       </c>
-      <c r="BL5">
-        <f t="shared" si="0"/>
-        <v>0.80562102566705684</v>
-      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42856</v>
       </c>
@@ -1717,12 +1701,8 @@
       <c r="BK6">
         <v>0</v>
       </c>
-      <c r="BL6">
-        <f t="shared" si="0"/>
-        <v>0.80535393747623751</v>
-      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42887</v>
       </c>
@@ -1912,12 +1892,8 @@
       <c r="BK7">
         <v>0</v>
       </c>
-      <c r="BL7">
-        <f t="shared" si="0"/>
-        <v>0.80619774663388211</v>
-      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42917</v>
       </c>
@@ -2107,12 +2083,8 @@
       <c r="BK8">
         <v>0</v>
       </c>
-      <c r="BL8">
-        <f t="shared" si="0"/>
-        <v>0.80848662437233998</v>
-      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42948</v>
       </c>
@@ -2302,12 +2274,8 @@
       <c r="BK9">
         <v>0</v>
       </c>
-      <c r="BL9">
-        <f t="shared" si="0"/>
-        <v>0.80369482382085844</v>
-      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42979</v>
       </c>
@@ -2497,12 +2465,8 @@
       <c r="BK10">
         <v>0</v>
       </c>
-      <c r="BL10">
-        <f t="shared" si="0"/>
-        <v>0.80280165669418879</v>
-      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43009</v>
       </c>
@@ -2692,12 +2656,8 @@
       <c r="BK11">
         <v>0</v>
       </c>
-      <c r="BL11">
-        <f t="shared" si="0"/>
-        <v>0.8038356029005489</v>
-      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43040</v>
       </c>
@@ -2887,12 +2847,8 @@
       <c r="BK12">
         <v>0</v>
       </c>
-      <c r="BL12">
-        <f t="shared" si="0"/>
-        <v>0.80621187351082735</v>
-      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43070</v>
       </c>
@@ -3082,12 +3038,8 @@
       <c r="BK13">
         <v>0</v>
       </c>
-      <c r="BL13">
-        <f t="shared" si="0"/>
-        <v>0.80487214305607557</v>
-      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43101</v>
       </c>
@@ -3277,12 +3229,8 @@
       <c r="BK14">
         <v>0</v>
       </c>
-      <c r="BL14">
-        <f t="shared" si="0"/>
-        <v>0.80301408324417922</v>
-      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43132</v>
       </c>
@@ -3472,12 +3420,8 @@
       <c r="BK15">
         <v>0</v>
       </c>
-      <c r="BL15">
-        <f t="shared" si="0"/>
-        <v>0.81095604208700045</v>
-      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43160</v>
       </c>
@@ -3667,12 +3611,8 @@
       <c r="BK16">
         <v>0</v>
       </c>
-      <c r="BL16">
-        <f t="shared" si="0"/>
-        <v>0.81130050116909713</v>
-      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43191</v>
       </c>
@@ -3862,12 +3802,8 @@
       <c r="BK17">
         <v>0</v>
       </c>
-      <c r="BL17">
-        <f t="shared" si="0"/>
-        <v>0.80288442882093025</v>
-      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43221</v>
       </c>
@@ -4057,12 +3993,8 @@
       <c r="BK18">
         <v>0</v>
       </c>
-      <c r="BL18">
-        <f t="shared" si="0"/>
-        <v>0.80414408805436832</v>
-      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43252</v>
       </c>
@@ -4252,12 +4184,8 @@
       <c r="BK19">
         <v>0</v>
       </c>
-      <c r="BL19">
-        <f t="shared" si="0"/>
-        <v>0.8008202795126631</v>
-      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43282</v>
       </c>
@@ -4447,12 +4375,8 @@
       <c r="BK20">
         <v>0</v>
       </c>
-      <c r="BL20">
-        <f t="shared" si="0"/>
-        <v>0.80329887525120003</v>
-      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43313</v>
       </c>
@@ -4642,12 +4566,8 @@
       <c r="BK21">
         <v>0</v>
       </c>
-      <c r="BL21">
-        <f t="shared" si="0"/>
-        <v>0.81153052132519121</v>
-      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43344</v>
       </c>
@@ -4837,12 +4757,8 @@
       <c r="BK22">
         <v>0</v>
       </c>
-      <c r="BL22">
-        <f t="shared" si="0"/>
-        <v>0.80124229317253404</v>
-      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43374</v>
       </c>
@@ -5032,12 +4948,8 @@
       <c r="BK23">
         <v>0</v>
       </c>
-      <c r="BL23">
-        <f t="shared" si="0"/>
-        <v>0.8013010883245425</v>
-      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43405</v>
       </c>
@@ -5227,12 +5139,8 @@
       <c r="BK24">
         <v>0</v>
       </c>
-      <c r="BL24">
-        <f t="shared" si="0"/>
-        <v>0.80381947886034677</v>
-      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43435</v>
       </c>
@@ -5422,12 +5330,8 @@
       <c r="BK25">
         <v>0</v>
       </c>
-      <c r="BL25">
-        <f t="shared" si="0"/>
-        <v>0.80508980920961393</v>
-      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43466</v>
       </c>
@@ -5617,12 +5521,8 @@
       <c r="BK26">
         <v>0</v>
       </c>
-      <c r="BL26">
-        <f t="shared" si="0"/>
-        <v>0.80176684431730239</v>
-      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43497</v>
       </c>
@@ -5812,12 +5712,8 @@
       <c r="BK27">
         <v>0</v>
       </c>
-      <c r="BL27">
-        <f t="shared" si="0"/>
-        <v>0.80752805767439073</v>
-      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43525</v>
       </c>
@@ -6007,12 +5903,8 @@
       <c r="BK28">
         <v>0</v>
       </c>
-      <c r="BL28">
-        <f t="shared" si="0"/>
-        <v>0.81038833935713805</v>
-      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43556</v>
       </c>
@@ -6202,12 +6094,8 @@
       <c r="BK29">
         <v>0</v>
       </c>
-      <c r="BL29">
-        <f t="shared" si="0"/>
-        <v>0.80640251857023004</v>
-      </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43586</v>
       </c>
@@ -6397,12 +6285,8 @@
       <c r="BK30">
         <v>0</v>
       </c>
-      <c r="BL30">
-        <f t="shared" si="0"/>
-        <v>0.81348861302343023</v>
-      </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43617</v>
       </c>
@@ -6592,12 +6476,8 @@
       <c r="BK31">
         <v>0</v>
       </c>
-      <c r="BL31">
-        <f t="shared" si="0"/>
-        <v>0.80087193331332107</v>
-      </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43647</v>
       </c>
@@ -6787,12 +6667,8 @@
       <c r="BK32">
         <v>0</v>
       </c>
-      <c r="BL32">
-        <f t="shared" si="0"/>
-        <v>0.80510484170771557</v>
-      </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43678</v>
       </c>
@@ -6982,12 +6858,8 @@
       <c r="BK33">
         <v>0</v>
       </c>
-      <c r="BL33">
-        <f t="shared" si="0"/>
-        <v>0.8034992716828997</v>
-      </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43709</v>
       </c>
@@ -7177,12 +7049,8 @@
       <c r="BK34">
         <v>0</v>
       </c>
-      <c r="BL34">
-        <f t="shared" si="0"/>
-        <v>0.8063946417364658</v>
-      </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43739</v>
       </c>
@@ -7372,12 +7240,8 @@
       <c r="BK35">
         <v>0</v>
       </c>
-      <c r="BL35">
-        <f t="shared" si="0"/>
-        <v>0.80306038868146801</v>
-      </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43770</v>
       </c>
@@ -7567,12 +7431,8 @@
       <c r="BK36">
         <v>0</v>
       </c>
-      <c r="BL36">
-        <f t="shared" si="0"/>
-        <v>0.80191108764811259</v>
-      </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43800</v>
       </c>
@@ -7762,12 +7622,8 @@
       <c r="BK37">
         <v>0</v>
       </c>
-      <c r="BL37">
-        <f t="shared" si="0"/>
-        <v>0.8076453961441431</v>
-      </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43831</v>
       </c>
@@ -7957,12 +7813,8 @@
       <c r="BK38">
         <v>0</v>
       </c>
-      <c r="BL38">
-        <f t="shared" si="0"/>
-        <v>0.80166125206150129</v>
-      </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43862</v>
       </c>
@@ -8152,12 +8004,8 @@
       <c r="BK39">
         <v>0</v>
       </c>
-      <c r="BL39">
-        <f t="shared" si="0"/>
-        <v>0.81377136818175655</v>
-      </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43891</v>
       </c>
@@ -8347,12 +8195,8 @@
       <c r="BK40">
         <v>0</v>
       </c>
-      <c r="BL40">
-        <f t="shared" si="0"/>
-        <v>0.80236742140170991</v>
-      </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43922</v>
       </c>
@@ -8542,12 +8386,8 @@
       <c r="BK41">
         <v>0</v>
       </c>
-      <c r="BL41">
-        <f t="shared" si="0"/>
-        <v>0.80799832712966824</v>
-      </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43952</v>
       </c>
@@ -8737,12 +8577,8 @@
       <c r="BK42">
         <v>0</v>
       </c>
-      <c r="BL42">
-        <f t="shared" si="0"/>
-        <v>0.80126346840955498</v>
-      </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43983</v>
       </c>
@@ -8932,12 +8768,8 @@
       <c r="BK43">
         <v>0</v>
       </c>
-      <c r="BL43">
-        <f t="shared" si="0"/>
-        <v>0.80357450258874719</v>
-      </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44013</v>
       </c>
@@ -9127,12 +8959,8 @@
       <c r="BK44">
         <v>0</v>
       </c>
-      <c r="BL44">
-        <f t="shared" si="0"/>
-        <v>0.80088807464525569</v>
-      </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44044</v>
       </c>
@@ -9322,12 +9150,8 @@
       <c r="BK45">
         <v>0</v>
       </c>
-      <c r="BL45">
-        <f t="shared" si="0"/>
-        <v>0.80335875621371666</v>
-      </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44075</v>
       </c>
@@ -9517,12 +9341,8 @@
       <c r="BK46">
         <v>0</v>
       </c>
-      <c r="BL46">
-        <f t="shared" si="0"/>
-        <v>0.80258784653540505</v>
-      </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44105</v>
       </c>
@@ -9712,12 +9532,8 @@
       <c r="BK47">
         <v>0</v>
       </c>
-      <c r="BL47">
-        <f t="shared" si="0"/>
-        <v>0.81014321402872946</v>
-      </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44136</v>
       </c>
@@ -9907,12 +9723,8 @@
       <c r="BK48">
         <v>0</v>
       </c>
-      <c r="BL48">
-        <f t="shared" si="0"/>
-        <v>0.80826798091395791</v>
-      </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44166</v>
       </c>
@@ -10102,12 +9914,8 @@
       <c r="BK49">
         <v>0</v>
       </c>
-      <c r="BL49">
-        <f t="shared" si="0"/>
-        <v>0.80897130639484383</v>
-      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44197</v>
       </c>
@@ -10297,12 +10105,8 @@
       <c r="BK50">
         <v>0</v>
       </c>
-      <c r="BL50">
-        <f t="shared" si="0"/>
-        <v>0.81061675073182426</v>
-      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44228</v>
       </c>
@@ -10492,12 +10296,8 @@
       <c r="BK51">
         <v>0</v>
       </c>
-      <c r="BL51">
-        <f t="shared" si="0"/>
-        <v>0.81526147878505406</v>
-      </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44256</v>
       </c>
@@ -10687,12 +10487,8 @@
       <c r="BK52">
         <v>0</v>
       </c>
-      <c r="BL52">
-        <f t="shared" si="0"/>
-        <v>0.80620585468942019</v>
-      </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44287</v>
       </c>
@@ -10882,12 +10678,8 @@
       <c r="BK53">
         <v>0</v>
       </c>
-      <c r="BL53">
-        <f t="shared" si="0"/>
-        <v>0.8055101872534921</v>
-      </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44317</v>
       </c>
@@ -11077,12 +10869,8 @@
       <c r="BK54">
         <v>0</v>
       </c>
-      <c r="BL54">
-        <f t="shared" si="0"/>
-        <v>0.8057043004979878</v>
-      </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44348</v>
       </c>
@@ -11272,12 +11060,8 @@
       <c r="BK55">
         <v>0</v>
       </c>
-      <c r="BL55">
-        <f t="shared" si="0"/>
-        <v>0.80352635069349632</v>
-      </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44378</v>
       </c>
@@ -11467,12 +11251,8 @@
       <c r="BK56">
         <v>0</v>
       </c>
-      <c r="BL56">
-        <f t="shared" si="0"/>
-        <v>0.81012012093892538</v>
-      </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44409</v>
       </c>
@@ -11662,12 +11442,8 @@
       <c r="BK57">
         <v>0</v>
       </c>
-      <c r="BL57">
-        <f t="shared" si="0"/>
-        <v>0.80160934707359566</v>
-      </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44440</v>
       </c>
@@ -11857,12 +11633,8 @@
       <c r="BK58">
         <v>0</v>
       </c>
-      <c r="BL58">
-        <f t="shared" si="0"/>
-        <v>0.80669723748447242</v>
-      </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44470</v>
       </c>
@@ -12052,12 +11824,8 @@
       <c r="BK59">
         <v>0</v>
       </c>
-      <c r="BL59">
-        <f t="shared" si="0"/>
-        <v>0.81270385168092896</v>
-      </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44501</v>
       </c>
@@ -12247,12 +12015,8 @@
       <c r="BK60">
         <v>0</v>
       </c>
-      <c r="BL60">
-        <f t="shared" si="0"/>
-        <v>0.80054647432555215</v>
-      </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44531</v>
       </c>
@@ -12442,12 +12206,8 @@
       <c r="BK61">
         <v>0</v>
       </c>
-      <c r="BL61">
-        <f t="shared" si="0"/>
-        <v>0.80505846632635514</v>
-      </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44562</v>
       </c>
@@ -12637,12 +12397,8 @@
       <c r="BK62">
         <v>0</v>
       </c>
-      <c r="BL62">
-        <f t="shared" si="0"/>
-        <v>0.81202952293456843</v>
-      </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44593</v>
       </c>
@@ -12832,12 +12588,8 @@
       <c r="BK63">
         <v>0</v>
       </c>
-      <c r="BL63">
-        <f t="shared" si="0"/>
-        <v>0.80255341196985053</v>
-      </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44621</v>
       </c>
@@ -13027,12 +12779,8 @@
       <c r="BK64">
         <v>0</v>
       </c>
-      <c r="BL64">
-        <f t="shared" si="0"/>
-        <v>0.80331233549018921</v>
-      </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44652</v>
       </c>
@@ -13222,12 +12970,8 @@
       <c r="BK65">
         <v>0</v>
       </c>
-      <c r="BL65">
-        <f t="shared" si="0"/>
-        <v>0.80687752693903636</v>
-      </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44682</v>
       </c>
@@ -13417,12 +13161,8 @@
       <c r="BK66">
         <v>0</v>
       </c>
-      <c r="BL66">
-        <f t="shared" si="0"/>
-        <v>0.8009839597646955</v>
-      </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44713</v>
       </c>
@@ -13612,12 +13352,8 @@
       <c r="BK67">
         <v>0</v>
       </c>
-      <c r="BL67">
-        <f t="shared" ref="BL67:BL105" si="1">SUM(B67:BK67)</f>
-        <v>0.80611923402360441</v>
-      </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44743</v>
       </c>
@@ -13807,12 +13543,8 @@
       <c r="BK68">
         <v>0</v>
       </c>
-      <c r="BL68">
-        <f t="shared" si="1"/>
-        <v>0.81238845056419351</v>
-      </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44774</v>
       </c>
@@ -14002,12 +13734,8 @@
       <c r="BK69">
         <v>0</v>
       </c>
-      <c r="BL69">
-        <f t="shared" si="1"/>
-        <v>0.80062445795108383</v>
-      </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44805</v>
       </c>
@@ -14197,12 +13925,8 @@
       <c r="BK70">
         <v>0</v>
       </c>
-      <c r="BL70">
-        <f t="shared" si="1"/>
-        <v>0.80797987598190579</v>
-      </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44835</v>
       </c>
@@ -14392,12 +14116,8 @@
       <c r="BK71">
         <v>0</v>
       </c>
-      <c r="BL71">
-        <f t="shared" si="1"/>
-        <v>0.80667545692672338</v>
-      </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44866</v>
       </c>
@@ -14587,12 +14307,8 @@
       <c r="BK72">
         <v>0</v>
       </c>
-      <c r="BL72">
-        <f t="shared" si="1"/>
-        <v>0.80615344221326701</v>
-      </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44896</v>
       </c>
@@ -14782,12 +14498,8 @@
       <c r="BK73">
         <v>0</v>
       </c>
-      <c r="BL73">
-        <f t="shared" si="1"/>
-        <v>0.80665355470539057</v>
-      </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44927</v>
       </c>
@@ -14977,12 +14689,8 @@
       <c r="BK74">
         <v>0</v>
       </c>
-      <c r="BL74">
-        <f t="shared" si="1"/>
-        <v>0.80232503772793251</v>
-      </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44958</v>
       </c>
@@ -15172,12 +14880,8 @@
       <c r="BK75">
         <v>0</v>
       </c>
-      <c r="BL75">
-        <f t="shared" si="1"/>
-        <v>0.80356999049072919</v>
-      </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44986</v>
       </c>
@@ -15367,12 +15071,8 @@
       <c r="BK76">
         <v>0</v>
       </c>
-      <c r="BL76">
-        <f t="shared" si="1"/>
-        <v>0.80499599482447726</v>
-      </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45017</v>
       </c>
@@ -15562,12 +15262,8 @@
       <c r="BK77">
         <v>0</v>
       </c>
-      <c r="BL77">
-        <f t="shared" si="1"/>
-        <v>0.80981886882873311</v>
-      </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45047</v>
       </c>
@@ -15757,12 +15453,8 @@
       <c r="BK78">
         <v>0</v>
       </c>
-      <c r="BL78">
-        <f t="shared" si="1"/>
-        <v>0.80663034642521003</v>
-      </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45078</v>
       </c>
@@ -15952,12 +15644,8 @@
       <c r="BK79">
         <v>0</v>
       </c>
-      <c r="BL79">
-        <f t="shared" si="1"/>
-        <v>0.80417634981871411</v>
-      </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45108</v>
       </c>
@@ -16147,12 +15835,8 @@
       <c r="BK80">
         <v>0</v>
       </c>
-      <c r="BL80">
-        <f t="shared" si="1"/>
-        <v>0.80432190123923775</v>
-      </c>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45139</v>
       </c>
@@ -16342,12 +16026,8 @@
       <c r="BK81">
         <v>0</v>
       </c>
-      <c r="BL81">
-        <f t="shared" si="1"/>
-        <v>0.80553474426113059</v>
-      </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45170</v>
       </c>
@@ -16537,12 +16217,8 @@
       <c r="BK82">
         <v>0</v>
       </c>
-      <c r="BL82">
-        <f t="shared" si="1"/>
-        <v>0.80738372251194579</v>
-      </c>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45200</v>
       </c>
@@ -16732,12 +16408,8 @@
       <c r="BK83">
         <v>0</v>
       </c>
-      <c r="BL83">
-        <f t="shared" si="1"/>
-        <v>0.8022495569377075</v>
-      </c>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45231</v>
       </c>
@@ -16927,12 +16599,8 @@
       <c r="BK84">
         <v>0</v>
       </c>
-      <c r="BL84">
-        <f t="shared" si="1"/>
-        <v>0.80859041646960528</v>
-      </c>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45261</v>
       </c>
@@ -17122,12 +16790,8 @@
       <c r="BK85">
         <v>0</v>
       </c>
-      <c r="BL85">
-        <f t="shared" si="1"/>
-        <v>0.80663810147659565</v>
-      </c>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45292</v>
       </c>
@@ -17317,12 +16981,8 @@
       <c r="BK86">
         <v>0</v>
       </c>
-      <c r="BL86">
-        <f t="shared" si="1"/>
-        <v>0.81299667103022988</v>
-      </c>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45323</v>
       </c>
@@ -17512,12 +17172,8 @@
       <c r="BK87">
         <v>0</v>
       </c>
-      <c r="BL87">
-        <f t="shared" si="1"/>
-        <v>0.80053836225014441</v>
-      </c>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45352</v>
       </c>
@@ -17707,12 +17363,8 @@
       <c r="BK88">
         <v>0</v>
       </c>
-      <c r="BL88">
-        <f t="shared" si="1"/>
-        <v>0.80504148613829463</v>
-      </c>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45383</v>
       </c>
@@ -17902,12 +17554,8 @@
       <c r="BK89">
         <v>0</v>
       </c>
-      <c r="BL89">
-        <f t="shared" si="1"/>
-        <v>0.81788909835056978</v>
-      </c>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45413</v>
       </c>
@@ -18097,12 +17745,8 @@
       <c r="BK90">
         <v>0</v>
       </c>
-      <c r="BL90">
-        <f t="shared" si="1"/>
-        <v>0.81117320489865219</v>
-      </c>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45444</v>
       </c>
@@ -18292,12 +17936,8 @@
       <c r="BK91">
         <v>0</v>
       </c>
-      <c r="BL91">
-        <f t="shared" si="1"/>
-        <v>0.81042589061577708</v>
-      </c>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45474</v>
       </c>
@@ -18487,12 +18127,8 @@
       <c r="BK92">
         <v>0</v>
       </c>
-      <c r="BL92">
-        <f t="shared" si="1"/>
-        <v>0.81279858679013761</v>
-      </c>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45505</v>
       </c>
@@ -18682,12 +18318,8 @@
       <c r="BK93">
         <v>0</v>
       </c>
-      <c r="BL93">
-        <f t="shared" si="1"/>
-        <v>0.80151292233793003</v>
-      </c>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45536</v>
       </c>
@@ -18877,12 +18509,8 @@
       <c r="BK94">
         <v>0</v>
       </c>
-      <c r="BL94">
-        <f t="shared" si="1"/>
-        <v>0.80604387565049584</v>
-      </c>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45566</v>
       </c>
@@ -19072,12 +18700,8 @@
       <c r="BK95">
         <v>0</v>
       </c>
-      <c r="BL95">
-        <f t="shared" si="1"/>
-        <v>0.80953506107734852</v>
-      </c>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45597</v>
       </c>
@@ -19267,12 +18891,8 @@
       <c r="BK96">
         <v>0</v>
       </c>
-      <c r="BL96">
-        <f t="shared" si="1"/>
-        <v>0.80990865331923145</v>
-      </c>
     </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45627</v>
       </c>
@@ -19462,12 +19082,8 @@
       <c r="BK97">
         <v>0</v>
       </c>
-      <c r="BL97">
-        <f t="shared" si="1"/>
-        <v>0.80992279921515176</v>
-      </c>
     </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45658</v>
       </c>
@@ -19657,12 +19273,8 @@
       <c r="BK98">
         <v>0</v>
       </c>
-      <c r="BL98">
-        <f t="shared" si="1"/>
-        <v>0.80841771612916469</v>
-      </c>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45689</v>
       </c>
@@ -19852,12 +19464,8 @@
       <c r="BK99">
         <v>0</v>
       </c>
-      <c r="BL99">
-        <f t="shared" si="1"/>
-        <v>0.80314165869663701</v>
-      </c>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45717</v>
       </c>
@@ -20047,12 +19655,8 @@
       <c r="BK100">
         <v>1.1575243543144599E-2</v>
       </c>
-      <c r="BL100">
-        <f t="shared" si="1"/>
-        <v>0.80752228721367403</v>
-      </c>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45748</v>
       </c>
@@ -20242,12 +19846,8 @@
       <c r="BK101">
         <v>1.6253114774992399E-2</v>
       </c>
-      <c r="BL101">
-        <f t="shared" si="1"/>
-        <v>0.80166830888161533</v>
-      </c>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45778</v>
       </c>
@@ -20437,12 +20037,8 @@
       <c r="BK102">
         <v>0</v>
       </c>
-      <c r="BL102">
-        <f t="shared" si="1"/>
-        <v>0.81275408717049913</v>
-      </c>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45809</v>
       </c>
@@ -20632,12 +20228,8 @@
       <c r="BK103">
         <v>0</v>
       </c>
-      <c r="BL103">
-        <f t="shared" si="1"/>
-        <v>0.81171817327412343</v>
-      </c>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45839</v>
       </c>
@@ -20827,12 +20419,8 @@
       <c r="BK104">
         <v>0</v>
       </c>
-      <c r="BL104">
-        <f t="shared" si="1"/>
-        <v>0.80829883640777056</v>
-      </c>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45870</v>
       </c>
@@ -21021,10 +20609,6 @@
       </c>
       <c r="BK105">
         <v>1.43889415936297E-2</v>
-      </c>
-      <c r="BL105">
-        <f t="shared" si="1"/>
-        <v>0.80254540505389604</v>
       </c>
     </row>
   </sheetData>
